--- a/web_domain_outcomes.xlsx
+++ b/web_domain_outcomes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="280">
   <si>
     <t>P</t>
   </si>
@@ -179,10 +179,51 @@
     <t>f_1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Collection of data not required for the </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>driver</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>-consented purpose</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_10)</t>
+  </si>
+  <si>
     <t>f_2</t>
   </si>
   <si>
-    <t>Consent-related issues</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Consent-related issues</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> with driver</t>
+    </r>
   </si>
   <si>
     <t>rename(embrace(p_4, p_17))</t>
@@ -194,13 +235,74 @@
     <t>f_3</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Data aggregation and profiling </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>of driver</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_18)</t>
+  </si>
+  <si>
     <t>f_4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Inability of</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> driver</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> to access and modify data</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_9)</t>
   </si>
   <si>
     <t>f_5</t>
   </si>
   <si>
-    <t>Inappropriate or Non-transparent Policies, Agreements, Terms and Conditions</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Inappropriate or non-transparent policies, agreements, terms and conditions </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>to driver</t>
+    </r>
   </si>
   <si>
     <t>rename(p_5, p_13)</t>
@@ -209,31 +311,219 @@
     <t>f_6</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Insecure data transfer </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>in OEM and/or car services</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_14)</t>
+  </si>
+  <si>
     <t>f_7</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient data breach response </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>from OEM</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_3)</t>
   </si>
   <si>
     <t>f_8</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient data quality </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>in OEM and/or car services</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_7)</t>
+  </si>
+  <si>
     <t>f_9</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient data structure model to handle </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>driver</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> rights</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_11)</t>
   </si>
   <si>
     <t>f_10</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Insufficient deletion of </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>driver</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> data</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_6)</t>
+  </si>
+  <si>
     <t>f_11</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Misleading content </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>in OEM services</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_16)</t>
   </si>
   <si>
     <t>f_12</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Operator-sided data leakage </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>in OEM and/or car devices</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_2)</t>
+  </si>
+  <si>
     <t>f_13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>Secondary use</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve"> of driver data</t>
+    </r>
+  </si>
+  <si>
+    <t>rename(p_19)</t>
   </si>
   <si>
     <t>f_14</t>
   </si>
   <si>
-    <t>Sharing, Transfer or Processing through 3rd Party</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Sharing, transfer or processing through 3rd party of </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>driver data</t>
+    </r>
   </si>
   <si>
     <t>rename(embrace(p_12, p_15))</t>
@@ -242,7 +532,21 @@
     <t>f_15</t>
   </si>
   <si>
-    <t>Software Vulnerabilities Exploitation</t>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t xml:space="preserve">Software vulnerabilities exploitation </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>in OEM and/or car services</t>
+    </r>
   </si>
   <si>
     <t>rename(embrace(p_1, p_8))</t>
@@ -2200,8 +2504,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.5"/>
-    <col customWidth="1" min="2" max="2" width="59.63"/>
-    <col customWidth="1" min="3" max="3" width="25.25"/>
+    <col customWidth="1" min="2" max="2" width="66.75"/>
+    <col customWidth="1" min="3" max="3" width="28.38"/>
     <col customWidth="1" min="4" max="10" width="5.13"/>
   </cols>
   <sheetData>
@@ -2242,10 +2546,10 @@
         <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>51</v>
@@ -2261,16 +2565,16 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -2285,13 +2589,13 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>51</v>
@@ -2309,13 +2613,13 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
@@ -2333,13 +2637,13 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
@@ -2355,13 +2659,13 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>51</v>
@@ -2379,13 +2683,13 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2399,13 +2703,13 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>51</v>
@@ -2419,13 +2723,13 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -2439,13 +2743,13 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7"/>
@@ -2459,13 +2763,13 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
@@ -2479,13 +2783,13 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>88</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
@@ -2501,13 +2805,13 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
@@ -2521,13 +2825,13 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>51</v>
@@ -2543,13 +2847,13 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>51</v>
@@ -2786,67 +3090,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="13" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="13" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="13" t="s">
@@ -2854,217 +3158,217 @@
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="13" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="N2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="N3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="16" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="16" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
@@ -3074,26 +3378,26 @@
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="16" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="16" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K9" s="15"/>
       <c r="L9" s="19"/>
@@ -3102,23 +3406,23 @@
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="13" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="15"/>
@@ -3128,26 +3432,26 @@
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
@@ -3156,27 +3460,27 @@
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -3186,28 +3490,28 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="16" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="16" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="15" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -3216,25 +3520,25 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="16" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="15" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="19"/>
@@ -3244,28 +3548,28 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="16" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="15" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -3274,25 +3578,25 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="16" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="13" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
@@ -3302,28 +3606,28 @@
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="15" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="16" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="16" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -3332,28 +3636,28 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="15" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="16" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="16" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -3362,23 +3666,23 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="16" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -3388,24 +3692,24 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -3414,24 +3718,24 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="13" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -3440,26 +3744,26 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="15" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="15" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -3468,24 +3772,24 @@
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="16" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -3494,23 +3798,23 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="13" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
@@ -3520,26 +3824,26 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -3548,23 +3852,23 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -3574,25 +3878,25 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -3602,21 +3906,21 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -3626,17 +3930,17 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
@@ -3648,19 +3952,19 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -3674,11 +3978,11 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="15" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -3694,13 +3998,13 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -3718,7 +4022,7 @@
       <c r="A33" s="19"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -3736,7 +4040,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -3754,7 +4058,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="19"/>
       <c r="C35" s="15" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="19"/>
@@ -3772,7 +4076,7 @@
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="15" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -3790,7 +4094,7 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -3808,7 +4112,7 @@
       <c r="A38" s="19"/>
       <c r="B38" s="15"/>
       <c r="C38" s="13" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="19"/>
@@ -3826,10 +4130,10 @@
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="16" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -3846,10 +4150,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -3866,7 +4170,7 @@
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="16" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -3884,7 +4188,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="19"/>
       <c r="C42" s="16" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -3902,7 +4206,7 @@
       <c r="A43" s="15"/>
       <c r="B43" s="19"/>
       <c r="C43" s="16" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -3920,7 +4224,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
@@ -18706,67 +19010,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="13" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B2" s="14"/>
       <c r="C2" s="13" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="13" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="13" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H2" s="14"/>
       <c r="I2" s="13" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J2" s="14"/>
       <c r="K2" s="13" t="s">
@@ -18774,357 +19078,357 @@
       </c>
       <c r="L2" s="14"/>
       <c r="M2" s="13" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="N2" s="14"/>
     </row>
     <row r="3">
       <c r="A3" s="15" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="N3" s="16"/>
     </row>
     <row r="4">
       <c r="A4" s="16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="15" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="16" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="16" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="16" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="B6" s="16"/>
       <c r="C6" s="16" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="16" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="J6" s="16"/>
       <c r="K6" s="16" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="15" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="16" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="J7" s="19"/>
       <c r="K7" s="16" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="M7" s="21" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="15" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="16" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="16" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="22" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="13" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="B9" s="14"/>
       <c r="C9" s="15" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="16" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="F9" s="19"/>
       <c r="G9" s="16" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K9" s="23" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="M9" s="22" t="s">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="15" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="16" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="16" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="13" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="J10" s="14"/>
       <c r="K10" s="23" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="16" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="B11" s="15"/>
       <c r="C11" s="15" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="16" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="K11" s="23" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="15" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="16" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="15" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
@@ -19134,28 +19438,28 @@
     </row>
     <row r="13">
       <c r="A13" s="16" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="D13" s="19"/>
       <c r="E13" s="16" t="s">
-        <v>157</v>
+        <v>179</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="16" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="H13" s="19"/>
       <c r="I13" s="15" t="s">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K13" s="19"/>
       <c r="L13" s="19"/>
@@ -19164,25 +19468,25 @@
     </row>
     <row r="14">
       <c r="A14" s="15" t="s">
-        <v>160</v>
+        <v>182</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="D14" s="19"/>
       <c r="E14" s="16" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="16" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="15" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="J14" s="16"/>
       <c r="K14" s="19"/>
@@ -19192,28 +19496,28 @@
     </row>
     <row r="15">
       <c r="A15" s="16" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="D15" s="19"/>
       <c r="E15" s="16" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="16" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="15" t="s">
-        <v>169</v>
+        <v>191</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K15" s="19"/>
       <c r="L15" s="19"/>
@@ -19222,25 +19526,25 @@
     </row>
     <row r="16">
       <c r="A16" s="15" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="16" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="F16" s="19"/>
       <c r="G16" s="13" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="15" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="19"/>
@@ -19250,28 +19554,28 @@
     </row>
     <row r="17">
       <c r="A17" s="16" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="15" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="16" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="F17" s="19"/>
       <c r="G17" s="16" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="19"/>
@@ -19280,28 +19584,28 @@
     </row>
     <row r="18">
       <c r="A18" s="15" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="B18" s="19"/>
       <c r="C18" s="15" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="16" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="F18" s="19"/>
       <c r="G18" s="16" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K18" s="19"/>
       <c r="L18" s="19"/>
@@ -19310,23 +19614,23 @@
     </row>
     <row r="19">
       <c r="A19" s="16" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="16" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="16" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="H19" s="16"/>
       <c r="I19" s="15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -19336,24 +19640,24 @@
     </row>
     <row r="20">
       <c r="A20" s="15" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="15" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J20" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
@@ -19362,24 +19666,24 @@
     </row>
     <row r="21">
       <c r="A21" s="16" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="16" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="D21" s="15"/>
       <c r="E21" s="13" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="15" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="J21" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
@@ -19388,26 +19692,26 @@
     </row>
     <row r="22">
       <c r="A22" s="15" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="15" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
       <c r="I22" s="15" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="J22" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K22" s="19"/>
       <c r="L22" s="19"/>
@@ -19416,24 +19720,24 @@
     </row>
     <row r="23">
       <c r="A23" s="16" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="B23" s="19"/>
       <c r="C23" s="13" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="16" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F23" s="19"/>
       <c r="G23" s="15"/>
       <c r="H23" s="15"/>
       <c r="I23" s="15" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="J23" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
@@ -19442,23 +19746,23 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="B24" s="14"/>
       <c r="C24" s="15" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="16" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="G24" s="15"/>
       <c r="H24" s="15"/>
       <c r="I24" s="13" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J24" s="14"/>
       <c r="K24" s="15"/>
@@ -19468,26 +19772,26 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="16" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="15"/>
       <c r="I25" s="15" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -19496,23 +19800,23 @@
     </row>
     <row r="26">
       <c r="A26" s="15" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="D26" s="15"/>
       <c r="E26" s="16" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="15"/>
       <c r="I26" s="15" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
@@ -19522,25 +19826,25 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
       <c r="I27" s="15" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
@@ -19550,21 +19854,21 @@
     </row>
     <row r="28">
       <c r="A28" s="15" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="15" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="15"/>
       <c r="I28" s="15" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J28" s="15"/>
       <c r="K28" s="15"/>
@@ -19574,17 +19878,17 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="B29" s="15"/>
       <c r="C29" s="15" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="F29" s="14"/>
       <c r="G29" s="15"/>
@@ -19596,19 +19900,19 @@
     </row>
     <row r="30">
       <c r="A30" s="15" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -19622,11 +19926,11 @@
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B31" s="14"/>
       <c r="C31" s="15" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
@@ -19642,13 +19946,13 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
@@ -19666,7 +19970,7 @@
       <c r="A33" s="19"/>
       <c r="B33" s="15"/>
       <c r="C33" s="15" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -19684,7 +19988,7 @@
       <c r="A34" s="15"/>
       <c r="B34" s="19"/>
       <c r="C34" s="15" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
@@ -19702,7 +20006,7 @@
       <c r="A35" s="15"/>
       <c r="B35" s="19"/>
       <c r="C35" s="15" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="19"/>
@@ -19720,7 +20024,7 @@
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="15" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
@@ -19738,7 +20042,7 @@
       <c r="A37" s="15"/>
       <c r="B37" s="15"/>
       <c r="C37" s="15" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
@@ -19756,7 +20060,7 @@
       <c r="A38" s="19"/>
       <c r="B38" s="15"/>
       <c r="C38" s="13" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="D38" s="14"/>
       <c r="E38" s="19"/>
@@ -19774,10 +20078,10 @@
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="16" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="E39" s="19"/>
       <c r="F39" s="19"/>
@@ -19794,10 +20098,10 @@
       <c r="A40" s="15"/>
       <c r="B40" s="15"/>
       <c r="C40" s="16" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
@@ -19814,7 +20118,7 @@
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="16" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="D41" s="19"/>
       <c r="E41" s="19"/>
@@ -19832,7 +20136,7 @@
       <c r="A42" s="15"/>
       <c r="B42" s="19"/>
       <c r="C42" s="16" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D42" s="19"/>
       <c r="E42" s="19"/>
@@ -19850,7 +20154,7 @@
       <c r="A43" s="15"/>
       <c r="B43" s="19"/>
       <c r="C43" s="16" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="D43" s="19"/>
       <c r="E43" s="19"/>
@@ -19868,7 +20172,7 @@
       <c r="A44" s="15"/>
       <c r="B44" s="15"/>
       <c r="C44" s="16" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
